--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1351025.411640771</v>
+        <v>1383641.037694789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6716639.34656341</v>
+        <v>6812159.980254078</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>320.0331481255878</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.1953825260219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>159.5828560759984</v>
+        <v>120.4465470948287</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>331.7220152307466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>70.47678023089514</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>110.2321454181824</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>72.593153437749</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>54.18430635300759</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953276</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>67.37282263167519</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,13 +1582,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>27.07950026194645</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.3727203283462</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>43.70143389869489</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>107.4059292302402</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1847,13 +1847,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>245.6062471592067</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907522</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>124.0599116349192</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>136.1614161296813</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,13 +2959,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>136.1614161296813</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225808</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.61404849749868</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3557,7 +3557,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>3.423392126084934</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6228498914032</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>140.4342819615948</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>280.9390873188494</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.0254420454375</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4138,10 +4138,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>13.9972839283044</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>191.5564305989686</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.6683834787607</v>
+        <v>442.6402219259112</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
         <v>87.50503495329731</v>
@@ -4343,13 +4343,13 @@
         <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4370,10 +4370,10 @@
         <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1277.225916111166</v>
       </c>
       <c r="Y2" t="n">
-        <v>1370.967953963669</v>
+        <v>868.939792410819</v>
       </c>
     </row>
     <row r="3">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1384727187784</v>
+        <v>667.9498980712576</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4492,13 +4492,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4528,10 +4528,10 @@
         <v>859.7685167902448</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9570914377655</v>
+        <v>859.7685167902448</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1783.901035373299</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>1749.798966597126</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>1313.88918177157</v>
       </c>
       <c r="E5" t="n">
-        <v>369.0164112589282</v>
+        <v>880.1144369298654</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390731</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346891</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2230.363435446997</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2230.363435446997</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1825.50798085803</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1810.405921477745</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1806.160201817802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>900.9284236664082</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>728.3667121496331</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>562.4887193511559</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>392.7307156018932</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>216.0236615636494</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1012.274025098916</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.0636759001416</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>449.961607123969</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>376.6351895100811</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>346.9008487087803</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>1333.751429465681</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>914.6089660449919</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.3228423446453</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>413.6262883912219</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>248.0350134170496</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>108.1328391074241</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.64297345017</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1078.256218512436</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>905.6945069956605</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>739.8165141971831</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>570.0585104479204</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>393.3514564096766</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1742.886262583902</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1497.494507917314</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1270.074837231423</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>944.829865684729</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939367</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107588</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8119928040996</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>612.2502812873246</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D16" t="n">
-        <v>446.3722884888472</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E16" t="n">
-        <v>446.3722884888472</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289275</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208979</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230868</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181361</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364784</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539229</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697524</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725239</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125429</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442445</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376272</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787305</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366616</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666269</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>967.3185545409864</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>794.7568430242113</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>794.7568430242113</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860601</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571957</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251567</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263714</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2715.24295832417</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2469.363511902625</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2190.930511155731</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.975003026161</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1631.948598612453</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1386.556843945865</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y19" t="n">
-        <v>1159.137173259973</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004225</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.634124109936</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405613</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420841</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928213</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1994.290572595111</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.264168181403</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.872413514815</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1249.452742828923</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.9010479080736</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.825451691258</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.946005269713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2146.513004522818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1859.557496393248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.53109197954</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1342.139337312952</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1114.719666627061</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,37 +7172,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937636</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769889</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7330,52 +7330,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354732</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638995</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822418</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996863</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155158</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643656</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>299.4391971876295</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583062</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900079</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833905</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824249</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271528</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436691</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2394.561078374474</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>2116.12807762758</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.12807762758</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245547</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874947</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107585</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777443</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2677.839094654636</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2677.839094654636</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2399.406093907741</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
   </sheetData>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8140,16 +8140,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.253332950434</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.3810530784686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>96.56253959275541</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>268.0111327346225</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.2385495991664</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.09722333628899</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>177.9825081356776</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.592177662722</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.00051207685087</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.67467827192601</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>34.67467827192601</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>110.0349065174846</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.146865729420277</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>89.61600311981265</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6516710866789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>33.58904338006417</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>566808.0528671644</v>
+        <v>577376.6548865604</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>566808.0528671644</v>
+        <v>579279.5549248317</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>569997.4080690742</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569997.408069074</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>578040.6258486857</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594051.9500359026</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586008.732256291</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>569997.4080690742</v>
+        <v>594051.9500359024</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
+        <v>402110.4899178064</v>
+      </c>
+      <c r="D2" t="n">
         <v>402110.4899178063</v>
       </c>
-      <c r="D2" t="n">
-        <v>402110.4899178065</v>
-      </c>
       <c r="E2" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="F2" t="n">
-        <v>379142.9234787571</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.99886501</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030141</v>
@@ -26344,16 +26344,16 @@
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167614</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="P2" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856654</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.89355701633</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
@@ -26454,10 +26454,10 @@
         <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>67079.996950883</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665.5748743584845</v>
+        <v>665.5748743584627</v>
       </c>
       <c r="C6" t="n">
-        <v>142856.8755340684</v>
+        <v>100339.6094215419</v>
       </c>
       <c r="D6" t="n">
-        <v>142856.8755340685</v>
+        <v>159733.7285533919</v>
       </c>
       <c r="E6" t="n">
-        <v>6021.366960505839</v>
+        <v>67045.91764745643</v>
       </c>
       <c r="F6" t="n">
-        <v>240376.3889825431</v>
+        <v>249401.0268685063</v>
       </c>
       <c r="G6" t="n">
-        <v>237072.5494649012</v>
+        <v>249401.0268685064</v>
       </c>
       <c r="H6" t="n">
-        <v>237021.4962279255</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="I6" t="n">
-        <v>249424.2512078888</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="J6" t="n">
-        <v>138409.7858628986</v>
+        <v>138386.561523516</v>
       </c>
       <c r="K6" t="n">
-        <v>249424.2512078888</v>
+        <v>196355.1722297338</v>
       </c>
       <c r="L6" t="n">
-        <v>249424.2512078889</v>
+        <v>240008.7251418838</v>
       </c>
       <c r="M6" t="n">
-        <v>53823.07192482114</v>
+        <v>97200.85593051864</v>
       </c>
       <c r="N6" t="n">
-        <v>249424.2512078888</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="O6" t="n">
-        <v>246398.8796826804</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="P6" t="n">
-        <v>240376.3889825433</v>
+        <v>249401.0268685062</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>113.7278999628231</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>97.00787993732121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.25323832560895</v>
+        <v>50.38954730677857</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>91.86674006413767</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>186.1532994252581</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>79.66828711361485</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>358.9575335395509</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.04145816404291</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>33.58904338006383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.253332950434</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743907979</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908445</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,16 +37944,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
